--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2739391.27929958</v>
+        <v>2738664.680428356</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330304</v>
+        <v>5851605.615330302</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.679312448</v>
+        <v>864456.6793124474</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>94.77580980318319</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>332.3446502360487</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>60.75017879743292</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>91.42297362470889</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -806,7 +806,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>256.845439587428</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>157.5890067652043</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>216.049089489378</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>196.2203514738777</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.9954815302045</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>222.878515041819</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>29.06736062834933</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C11" t="n">
         <v>376.5244030535246</v>
@@ -1390,7 +1390,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975955</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967475</v>
       </c>
       <c r="V11" t="n">
         <v>316.8402373905461</v>
@@ -1435,7 +1435,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>136.1071839298127</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G13" t="n">
-        <v>12.02709604110586</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>207.6543099067269</v>
@@ -1587,16 +1587,16 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>376.6200261415065</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995113</v>
@@ -1624,10 +1624,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975955</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U14" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V14" t="n">
         <v>316.8402373905461</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>62.42766323312789</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.68364371037909</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
         <v>241.6479458835352</v>
@@ -1833,7 +1833,7 @@
         <v>206.4614817925754</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>178.1391812325935</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995107</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G17" t="n">
         <v>375.1420595397582</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>73.24513052338504</v>
+        <v>33.12209635668033</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037919</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
         <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
         <v>206.4614817925755</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415066</v>
+        <v>376.620026141506</v>
       </c>
       <c r="C20" t="n">
         <v>376.5244030535246</v>
@@ -2244,19 +2244,19 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501642</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>8.991920663938393</v>
+        <v>103.188557496685</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
         <v>250.4712242529991</v>
@@ -2304,10 +2304,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E23" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975955</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V23" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W23" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X23" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T25" t="n">
-        <v>155.8139586908618</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198763</v>
+        <v>162.6487322210752</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E26" t="n">
         <v>380.6978716019343</v>
@@ -2572,10 +2572,10 @@
         <v>375.1420595397582</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975884</v>
+        <v>55.98930332975934</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U26" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V26" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W26" t="n">
         <v>350.4237561298452</v>
@@ -2623,7 +2623,7 @@
         <v>367.1380221263991</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>95.68642631901972</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.0789454373741</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>118.61243891626</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037919</v>
+        <v>85.68364371037914</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501642</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>15.97656539873346</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
         <v>246.7800261198764</v>
@@ -2781,7 +2781,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415067</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535247</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D29" t="n">
-        <v>370.9203488815322</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019344</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F29" t="n">
         <v>387.3211661995114</v>
@@ -2809,10 +2809,10 @@
         <v>375.1420595397582</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975968</v>
+        <v>55.98930332975961</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275023</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862719</v>
+        <v>190.4854774862714</v>
       </c>
       <c r="U29" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V29" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W29" t="n">
         <v>350.4237561298452</v>
@@ -2860,7 +2860,7 @@
         <v>367.1380221263991</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.4283645950504</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.3237676037661</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875628</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039812</v>
+        <v>109.5861815800713</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037922</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501645</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.028908712551</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>207.654309906727</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529992</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835354</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
-        <v>76.96990279570706</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C32" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D32" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F32" t="n">
         <v>387.3211661995113</v>
@@ -3046,10 +3046,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>104.4293227275021</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U32" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V32" t="n">
         <v>316.8402373905461</v>
@@ -3094,7 +3094,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y32" t="n">
         <v>367.4283645950528</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>114.6712979802681</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501634</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X34" t="n">
-        <v>108.1619422593457</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y34" t="n">
         <v>192.9893998987849</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D35" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F35" t="n">
         <v>387.3211661995113</v>
@@ -3283,10 +3283,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275021</v>
+        <v>104.429322727504</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V35" t="n">
         <v>316.8402373905461</v>
@@ -3331,7 +3331,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y35" t="n">
         <v>367.4283645950528</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>88.0431457716974</v>
+        <v>28.98765426988905</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y37" t="n">
         <v>192.9893998987849</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C38" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D38" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F38" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G38" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975966</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275013</v>
+        <v>104.429322727504</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4854774862719</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U38" t="n">
-        <v>224.9909450967471</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V38" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W38" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>367.1380221263991</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y38" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875628</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2597201447558768</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>136.0789454373741</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>118.61243891626</v>
+        <v>46.36316546205843</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037919</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>250.4712242529992</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W40" t="n">
-        <v>246.7800261198765</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
-        <v>123.2715627317515</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>62.68223391146864</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.94861726449439</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4066896505621</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U46" t="n">
-        <v>116.0240661065096</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298.098156350605</v>
+        <v>873.0340299338581</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.01396970428</v>
+        <v>866.9498432875322</v>
       </c>
       <c r="D2" t="n">
-        <v>887.5500397973401</v>
+        <v>866.5263174209967</v>
       </c>
       <c r="E2" t="n">
-        <v>473.2098243142368</v>
+        <v>770.7931762056602</v>
       </c>
       <c r="F2" t="n">
-        <v>456.2198163083284</v>
+        <v>753.8031681997518</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032287</v>
+        <v>345.0748840925839</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032287</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="I2" t="n">
-        <v>34.1663867203019</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="J2" t="n">
-        <v>34.1663867203019</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="K2" t="n">
-        <v>439.8922290238868</v>
+        <v>456.9754223840376</v>
       </c>
       <c r="L2" t="n">
-        <v>862.7012646876228</v>
+        <v>862.7012646876225</v>
       </c>
       <c r="M2" t="n">
-        <v>1285.510300351359</v>
+        <v>1285.510300351358</v>
       </c>
       <c r="N2" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="O2" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="P2" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.319336015095</v>
+        <v>1486.112851961953</v>
       </c>
       <c r="U2" t="n">
-        <v>1708.319336015095</v>
+        <v>1229.052360221463</v>
       </c>
       <c r="V2" t="n">
-        <v>1708.319336015095</v>
+        <v>879.2148055579435</v>
       </c>
       <c r="W2" t="n">
-        <v>1708.319336015095</v>
+        <v>879.2148055579435</v>
       </c>
       <c r="X2" t="n">
-        <v>1708.319336015095</v>
+        <v>879.2148055579435</v>
       </c>
       <c r="Y2" t="n">
-        <v>1708.319336015095</v>
+        <v>879.2148055579435</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>640.3659743228859</v>
+        <v>712.9972286068362</v>
       </c>
       <c r="C3" t="n">
         <v>579.0021573557819</v>
@@ -4400,61 +4400,61 @@
         <v>232.652303750007</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643457</v>
+        <v>125.6621910643456</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006173</v>
+        <v>54.9149781000617</v>
       </c>
       <c r="I3" t="n">
-        <v>34.1663867203019</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="J3" t="n">
-        <v>34.1663867203019</v>
+        <v>60.48824497727344</v>
       </c>
       <c r="K3" t="n">
-        <v>34.1663867203019</v>
+        <v>483.2972806410091</v>
       </c>
       <c r="L3" t="n">
-        <v>456.9754223840379</v>
+        <v>906.1063163047448</v>
       </c>
       <c r="M3" t="n">
-        <v>879.7844580477738</v>
+        <v>906.1063163047448</v>
       </c>
       <c r="N3" t="n">
-        <v>1302.59349371151</v>
+        <v>906.1063163047448</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.59349371151</v>
+        <v>1328.915351968481</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.474871331111</v>
+        <v>1328.915351968481</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015095</v>
+        <v>1678.759816652464</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129404</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316412</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="U3" t="n">
-        <v>1243.636651454631</v>
+        <v>1615.972898010337</v>
       </c>
       <c r="V3" t="n">
-        <v>1029.925124447664</v>
+        <v>1402.261371003371</v>
       </c>
       <c r="W3" t="n">
-        <v>816.6919561839931</v>
+        <v>1189.0282027397</v>
       </c>
       <c r="X3" t="n">
-        <v>640.3659743228859</v>
+        <v>1012.702220878593</v>
       </c>
       <c r="Y3" t="n">
-        <v>640.3659743228859</v>
+        <v>853.3002612424228</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>792.912219906065</v>
+        <v>525.6652189673559</v>
       </c>
       <c r="C4" t="n">
-        <v>792.912219906065</v>
+        <v>354.5718465290724</v>
       </c>
       <c r="D4" t="n">
-        <v>792.912219906065</v>
+        <v>195.0772018519824</v>
       </c>
       <c r="E4" t="n">
-        <v>632.0014047743845</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="F4" t="n">
-        <v>467.3702788849757</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="G4" t="n">
-        <v>300.1198878105191</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="H4" t="n">
-        <v>150.5124326159757</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="I4" t="n">
-        <v>34.1663867203019</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551242</v>
+        <v>48.2489361255124</v>
       </c>
       <c r="K4" t="n">
         <v>202.8012638477504</v>
@@ -4512,28 +4512,28 @@
         <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1478.292565016552</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="S4" t="n">
-        <v>1291.900796896462</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.352057873164</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="U4" t="n">
-        <v>792.912219906065</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="V4" t="n">
-        <v>792.912219906065</v>
+        <v>1455.514150604078</v>
       </c>
       <c r="W4" t="n">
-        <v>792.912219906065</v>
+        <v>1176.444486112952</v>
       </c>
       <c r="X4" t="n">
-        <v>792.912219906065</v>
+        <v>938.1006239726356</v>
       </c>
       <c r="Y4" t="n">
-        <v>792.912219906065</v>
+        <v>713.3649253614003</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1441.252713250695</v>
+        <v>1378.723472461974</v>
       </c>
       <c r="C5" t="n">
-        <v>1435.16852660437</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D5" t="n">
-        <v>1030.70459669743</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,49 +4570,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L5" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W5" t="n">
-        <v>1447.433488874781</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="X5" t="n">
-        <v>1447.433488874781</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="Y5" t="n">
-        <v>1447.433488874781</v>
+        <v>1384.904248086059</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
-        <v>675.1644281008383</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>486.272337731413</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>486.272337731413</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>486.272337731413</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>325.3615225997325</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3615225997325</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5443774486778</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5443774486778</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>684.4747129575521</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>486.272337731413</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>486.272337731413</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1696.412113819451</v>
+        <v>1199.239803110925</v>
       </c>
       <c r="C8" t="n">
-        <v>1286.287523132721</v>
+        <v>1193.155616464599</v>
       </c>
       <c r="D8" t="n">
-        <v>881.8235932257816</v>
+        <v>788.6916865576595</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>778.3918751149603</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4804,25 +4804,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1054.568412147452</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V8" t="n">
-        <v>1952.973206274203</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.973206274203</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.973206274203</v>
+        <v>1430.550391908565</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.973206274203</v>
+        <v>1205.42057873501</v>
       </c>
     </row>
     <row r="9">
@@ -4889,22 +4889,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.12605596126804</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>71.12605596126804</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>71.12605596126804</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>71.12605596126804</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>71.12605596126804</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>71.12605596126804</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>71.12605596126804</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>862.4253276531883</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>588.5395825927103</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>309.4699181015847</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>71.12605596126804</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>71.12605596126804</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G11" t="n">
         <v>430.910136076462</v>
@@ -5071,7 +5071,7 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
         <v>4137.027566035664</v>
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M12" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2053.115206569777</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>321.6391484537198</v>
+        <v>359.1918170423423</v>
       </c>
       <c r="C13" t="n">
-        <v>321.6391484537198</v>
+        <v>359.1918170423423</v>
       </c>
       <c r="D13" t="n">
-        <v>191.9414146113147</v>
+        <v>359.1918170423423</v>
       </c>
       <c r="E13" t="n">
-        <v>191.9414146113147</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F13" t="n">
-        <v>191.9414146113147</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L13" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200945</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V13" t="n">
-        <v>937.361648975152</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W13" t="n">
-        <v>688.0888953187111</v>
+        <v>900.1595600940323</v>
       </c>
       <c r="X13" t="n">
-        <v>479.5419440130794</v>
+        <v>691.6126087884005</v>
       </c>
       <c r="Y13" t="n">
-        <v>479.5419440130794</v>
+        <v>496.6738210118501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2340.613014133289</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281244</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560571</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489439</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764612</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H14" t="n">
         <v>149.7985495388648</v>
@@ -5278,10 +5278,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
         <v>4364.291146941468</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.986922206828</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176681</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.177045180319</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>532.5581915209807</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="M15" t="n">
-        <v>532.5581915209807</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N15" t="n">
-        <v>1406.216283632599</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>548.5228536411037</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="C16" t="n">
-        <v>407.2263920375051</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="D16" t="n">
-        <v>407.2263920375051</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="E16" t="n">
-        <v>276.1124877405094</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="F16" t="n">
-        <v>213.0542420504813</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G16" t="n">
-        <v>213.0542420504813</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5442,10 +5442,10 @@
         <v>320.2864794362206</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N16" t="n">
         <v>1237.898275478249</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S16" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T16" t="n">
-        <v>1856.27421278407</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U16" t="n">
-        <v>1603.272976164879</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V16" t="n">
-        <v>1359.184141939086</v>
+        <v>937.3616489751524</v>
       </c>
       <c r="W16" t="n">
-        <v>1109.911388282645</v>
+        <v>688.0888953187117</v>
       </c>
       <c r="X16" t="n">
-        <v>901.3644369770135</v>
+        <v>479.54194401308</v>
       </c>
       <c r="Y16" t="n">
-        <v>706.4256492004631</v>
+        <v>299.6033771114703</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
         <v>809.8415093489451</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5554,13 +5554,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
         <v>1760.328909494509</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.8771465121602</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="C19" t="n">
-        <v>712.8921661855086</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>583.1944323431034</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>452.0805280461076</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>317.2463129913837</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5706,19 +5706,19 @@
         <v>1434.451719820136</v>
       </c>
       <c r="U19" t="n">
-        <v>1434.451719820136</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.362885594343</v>
+        <v>937.3616489751514</v>
       </c>
       <c r="W19" t="n">
-        <v>1190.362885594343</v>
+        <v>688.0888953187106</v>
       </c>
       <c r="X19" t="n">
-        <v>981.8159342887107</v>
+        <v>479.5419440130787</v>
       </c>
       <c r="Y19" t="n">
-        <v>786.8771465121602</v>
+        <v>284.6031562365282</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489452</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G20" t="n">
         <v>430.9101360764621</v>
@@ -5788,16 +5788,16 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>286.056555253256</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1129.033635947823</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>2002.69172805944</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
         <v>2110.173374178493</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>887.4500370879769</v>
+        <v>234.5401592942215</v>
       </c>
       <c r="C22" t="n">
-        <v>746.1535754843782</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>616.4558416419729</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>485.3419373449772</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>350.5077222902532</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>213.0542420504814</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1791.715657148762</v>
+        <v>1752.043346625802</v>
       </c>
       <c r="T22" t="n">
-        <v>1791.715657148762</v>
+        <v>1542.291518437189</v>
       </c>
       <c r="U22" t="n">
-        <v>1538.714420529571</v>
+        <v>1289.290281817998</v>
       </c>
       <c r="V22" t="n">
-        <v>1294.625586303777</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W22" t="n">
-        <v>1045.352832647337</v>
+        <v>795.9286939357635</v>
       </c>
       <c r="X22" t="n">
-        <v>1045.352832647337</v>
+        <v>587.3817426301316</v>
       </c>
       <c r="Y22" t="n">
-        <v>1045.352832647337</v>
+        <v>392.4429548535811</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5992,7 +5992,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6025,13 +6025,13 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y23" t="n">
         <v>2721.037282963096</v>
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>1640.177868931084</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>234.5401592942214</v>
+        <v>973.9991721489658</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>832.7027105453672</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>703.0049767029619</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>571.8910724059662</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>437.0568573512422</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6150,13 +6150,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N25" t="n">
         <v>1237.898275478248</v>
@@ -6177,22 +6177,22 @@
         <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.291518437188</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="U25" t="n">
-        <v>1289.290281817997</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="V25" t="n">
-        <v>1045.201447592204</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="W25" t="n">
-        <v>795.9286939357631</v>
+        <v>1535.387706790508</v>
       </c>
       <c r="X25" t="n">
-        <v>587.3817426301314</v>
+        <v>1326.840755484876</v>
       </c>
       <c r="Y25" t="n">
-        <v>392.442954853581</v>
+        <v>1131.901967708325</v>
       </c>
     </row>
     <row r="26">
@@ -6211,16 +6211,16 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489443</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764613</v>
+        <v>430.9101360764618</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388641</v>
+        <v>149.7985495388646</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6314,16 +6314,16 @@
         <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N27" t="n">
-        <v>1597.308950304478</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>973.9991721489658</v>
+        <v>533.7098132290399</v>
       </c>
       <c r="C28" t="n">
-        <v>832.7027105453672</v>
+        <v>437.0568573512422</v>
       </c>
       <c r="D28" t="n">
-        <v>703.0049767029619</v>
+        <v>437.0568573512422</v>
       </c>
       <c r="E28" t="n">
-        <v>571.8910724059662</v>
+        <v>437.0568573512422</v>
       </c>
       <c r="F28" t="n">
         <v>437.0568573512422</v>
@@ -6387,7 +6387,7 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
         <v>609.3875320253555</v>
@@ -6408,28 +6408,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T28" t="n">
-        <v>1800.798405294154</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U28" t="n">
-        <v>1800.798405294154</v>
+        <v>1393.521147976265</v>
       </c>
       <c r="V28" t="n">
-        <v>1784.660460446948</v>
+        <v>1149.432313750472</v>
       </c>
       <c r="W28" t="n">
-        <v>1535.387706790508</v>
+        <v>900.1595600940312</v>
       </c>
       <c r="X28" t="n">
-        <v>1326.840755484876</v>
+        <v>691.6126087883995</v>
       </c>
       <c r="Y28" t="n">
-        <v>1131.901967708325</v>
+        <v>691.6126087883995</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489452</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764622</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388649</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6493,22 +6493,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206828</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176681</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.177045180319</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="30">
@@ -6548,19 +6548,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>701.7114768544703</v>
+        <v>338.7710254524894</v>
       </c>
       <c r="C31" t="n">
-        <v>560.4150152508715</v>
+        <v>338.7710254524894</v>
       </c>
       <c r="D31" t="n">
-        <v>430.7172814084663</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="E31" t="n">
-        <v>299.6033771114705</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F31" t="n">
-        <v>299.6033771114705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>299.6033771114705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049078</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362203</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253553</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749232</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N31" t="n">
         <v>1237.898275478248</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113796</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P31" t="n">
-        <v>1761.542230672483</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q31" t="n">
-        <v>1856.274212784069</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294153</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008748</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820135</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200944</v>
+        <v>1393.521147976265</v>
       </c>
       <c r="V31" t="n">
-        <v>937.3616489751503</v>
+        <v>1149.432313750472</v>
       </c>
       <c r="W31" t="n">
-        <v>937.3616489751503</v>
+        <v>900.1595600940312</v>
       </c>
       <c r="X31" t="n">
-        <v>859.61427241383</v>
+        <v>691.6126087883995</v>
       </c>
       <c r="Y31" t="n">
-        <v>859.61427241383</v>
+        <v>496.673821011849</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.613014133292</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489452</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G32" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="33">
@@ -6785,16 +6785,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>1597.308950304478</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N33" t="n">
-        <v>1597.308950304478</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
         <v>2139.732893541123</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>719.354412734383</v>
+        <v>338.7710254524906</v>
       </c>
       <c r="C34" t="n">
-        <v>578.0579511307843</v>
+        <v>338.7710254524906</v>
       </c>
       <c r="D34" t="n">
-        <v>448.3602172883792</v>
+        <v>209.0732916100855</v>
       </c>
       <c r="E34" t="n">
-        <v>317.2463129913835</v>
+        <v>209.0732916100855</v>
       </c>
       <c r="F34" t="n">
-        <v>317.2463129913835</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N34" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P34" t="n">
         <v>1761.542230672484</v>
@@ -6882,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T34" t="n">
-        <v>1434.451719820136</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U34" t="n">
-        <v>1181.450483200945</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V34" t="n">
-        <v>1181.450483200945</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W34" t="n">
-        <v>1181.450483200945</v>
+        <v>900.1595600940323</v>
       </c>
       <c r="X34" t="n">
-        <v>1072.195996070293</v>
+        <v>691.6126087884005</v>
       </c>
       <c r="Y34" t="n">
-        <v>877.2572082937426</v>
+        <v>496.6738210118501</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C35" t="n">
         <v>1960.285334281245</v>
@@ -6928,10 +6928,10 @@
         <v>809.8415093489448</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,19 +6964,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V35" t="n">
         <v>3816.986922206829</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X35" t="n">
         <v>3092.17704518032</v>
@@ -7028,13 +7028,13 @@
         <v>754.331869609911</v>
       </c>
       <c r="N36" t="n">
-        <v>754.331869609911</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O36" t="n">
-        <v>1458.288960155805</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
-        <v>2019.994852644335</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>182.1761681670848</v>
+        <v>338.7710254524906</v>
       </c>
       <c r="C37" t="n">
-        <v>182.1761681670848</v>
+        <v>338.7710254524906</v>
       </c>
       <c r="D37" t="n">
-        <v>182.1761681670848</v>
+        <v>209.0732916100855</v>
       </c>
       <c r="E37" t="n">
-        <v>182.1761681670848</v>
+        <v>209.0732916100855</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P37" t="n">
         <v>1761.542230672484</v>
@@ -7122,25 +7122,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1699.679355498665</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T37" t="n">
-        <v>1489.927527310052</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U37" t="n">
-        <v>1236.926290690861</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V37" t="n">
-        <v>992.8374564650675</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W37" t="n">
-        <v>743.5647028086266</v>
+        <v>900.1595600940323</v>
       </c>
       <c r="X37" t="n">
-        <v>535.0177515029949</v>
+        <v>691.6126087884005</v>
       </c>
       <c r="Y37" t="n">
-        <v>340.0789637264444</v>
+        <v>496.6738210118501</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D38" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388649</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4556.700720159926</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.29114694147</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>844.5637818871223</v>
+        <v>548.5228536411037</v>
       </c>
       <c r="C40" t="n">
-        <v>703.2673202835235</v>
+        <v>407.2263920375051</v>
       </c>
       <c r="D40" t="n">
-        <v>703.004976702962</v>
+        <v>277.5286581951</v>
       </c>
       <c r="E40" t="n">
-        <v>571.8910724059663</v>
+        <v>277.5286581951</v>
       </c>
       <c r="F40" t="n">
-        <v>437.0568573512423</v>
+        <v>277.5286581951</v>
       </c>
       <c r="G40" t="n">
-        <v>299.6033771114705</v>
+        <v>140.0751779553283</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5301994049078</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N40" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P40" t="n">
         <v>1761.542230672484</v>
@@ -7359,25 +7359,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1699.679355498665</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T40" t="n">
-        <v>1699.679355498665</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U40" t="n">
-        <v>1446.678118879473</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V40" t="n">
-        <v>1446.678118879473</v>
+        <v>1359.184141939086</v>
       </c>
       <c r="W40" t="n">
-        <v>1197.405365223033</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X40" t="n">
-        <v>1197.405365223033</v>
+        <v>901.3644369770135</v>
       </c>
       <c r="Y40" t="n">
-        <v>1002.466577446482</v>
+        <v>706.4256492004631</v>
       </c>
     </row>
     <row r="41">
@@ -7441,10 +7441,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
         <v>4058.401178705436</v>
@@ -7490,25 +7490,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>741.8628115185547</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>403.7619680168467</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C43" t="n">
-        <v>403.7619680168467</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D43" t="n">
-        <v>403.7619680168467</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E43" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F43" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G43" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
         <v>93.2436976906228</v>
@@ -7596,25 +7596,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1196.702087168085</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1196.702087168085</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V43" t="n">
-        <v>1196.702087168085</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W43" t="n">
-        <v>917.6324226769595</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X43" t="n">
-        <v>679.288560536643</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y43" t="n">
-        <v>591.4616744108911</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7678,22 +7678,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4662.18488453114</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U44" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V44" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W44" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>494.6659264600851</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M45" t="n">
-        <v>494.6659264600851</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>494.6659264600851</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U46" t="n">
-        <v>1505.446567941261</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V46" t="n">
-        <v>1231.560822880783</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W46" t="n">
-        <v>952.4911583896576</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X46" t="n">
-        <v>714.147296249341</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y46" t="n">
-        <v>714.147296249341</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>498.9604728081515</v>
+        <v>516.2162236769906</v>
       </c>
       <c r="L2" t="n">
-        <v>522.5652320666186</v>
+        <v>505.3094811977791</v>
       </c>
       <c r="M2" t="n">
-        <v>520.3700584608192</v>
+        <v>520.3700584608189</v>
       </c>
       <c r="N2" t="n">
-        <v>519.992124760393</v>
+        <v>519.9921247603928</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>77.9569744131026</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>482.9056167883888</v>
       </c>
       <c r="L3" t="n">
-        <v>483.1943578146228</v>
+        <v>483.1943578146225</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421912</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>480.2732273975237</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>484.8313130037735</v>
       </c>
       <c r="P3" t="n">
-        <v>110.7054709821993</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
@@ -8227,19 +8227,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>534.7878950544006</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>498.2302468367834</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>395.7562197346342</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>535.1658287548266</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8537,7 +8537,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -8546,7 +8546,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>72.2360729453882</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
@@ -8555,7 +8555,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,16 +8768,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8786,13 +8786,13 @@
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>144.1852316072087</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8941,7 +8941,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -9008,10 +9008,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>305.1060755964295</v>
+        <v>585.6215843269604</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
@@ -9020,7 +9020,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9029,7 +9029,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P17" t="n">
         <v>628.1510783507341</v>
@@ -9242,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>362.6551416563004</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,25 +9482,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>166.3187983121741</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>558.8606699624394</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9962,19 +9962,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>605.6544519663084</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10196,22 +10196,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>536.3885161299984</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10433,19 +10433,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>846.2776300172818</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>605.6544519663084</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10676,16 +10676,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>885.2086776792871</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>177.6401345621998</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N39" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N42" t="n">
-        <v>186.7359176241983</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11375,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>266.8310603834036</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>20.21658367395324</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>124.0518493962682</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037909</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D16" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>71.05820967104871</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G16" t="n">
         <v>136.078945437374</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>14.85021866619138</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>66.63836646417768</v>
+        <v>106.7614006308824</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H19" t="n">
         <v>118.61243891626</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I22" t="n">
         <v>85.68364371037919</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S22" t="n">
-        <v>146.0369880486125</v>
+        <v>51.84035121586594</v>
       </c>
       <c r="T22" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037909</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501633</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>51.84035121586507</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>84.1312938988012</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>44.19707066854298</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S28" t="n">
         <v>155.0289087125509</v>
       </c>
       <c r="T28" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>225.6713804848019</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>18.81457492390986</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041768</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.0789454373741</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.68364371037914</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198765</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>129.4915789968685</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>18.81457492390849</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>98.29953953322973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>45.44272713247926</v>
+        <v>104.4982186342876</v>
       </c>
       <c r="G37" t="n">
         <v>136.078945437374</v>
@@ -25332,7 +25332,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501634</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.1410363592253</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>72.24927345420143</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501643</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835354</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
-        <v>223.0676163851326</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>123.1404754186353</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25794,16 +25794,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25836,16 +25836,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.5397243606286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>54.06597461814459</v>
       </c>
       <c r="U44" t="n">
-        <v>3.083197172522915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U46" t="n">
-        <v>163.9460998728275</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>580060.7269807699</v>
+        <v>580060.7269807698</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>594539.3747392343</v>
+        <v>594539.3747392342</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>594539.3747392342</v>
+        <v>594539.3747392343</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>594539.3747392342</v>
+        <v>594539.3747392343</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>594539.3747392343</v>
+        <v>594539.3747392342</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>594539.3747392342</v>
+        <v>594539.3747392343</v>
       </c>
     </row>
     <row r="15">
@@ -26316,43 +26316,43 @@
         <v>602664.8542200906</v>
       </c>
       <c r="C2" t="n">
-        <v>602664.8542200904</v>
+        <v>602664.8542200907</v>
       </c>
       <c r="D2" t="n">
-        <v>602664.8542200906</v>
+        <v>602664.8542200907</v>
       </c>
       <c r="E2" t="n">
-        <v>584042.9209415644</v>
+        <v>584042.9209415638</v>
       </c>
       <c r="F2" t="n">
-        <v>584042.920941564</v>
+        <v>584042.9209415643</v>
       </c>
       <c r="G2" t="n">
-        <v>584042.9209415638</v>
+        <v>584042.9209415641</v>
       </c>
       <c r="H2" t="n">
         <v>584042.9209415639</v>
       </c>
       <c r="I2" t="n">
-        <v>584042.9209415641</v>
+        <v>584042.920941564</v>
       </c>
       <c r="J2" t="n">
+        <v>584042.920941564</v>
+      </c>
+      <c r="K2" t="n">
         <v>584042.9209415639</v>
-      </c>
-      <c r="K2" t="n">
-        <v>584042.9209415638</v>
       </c>
       <c r="L2" t="n">
         <v>584042.9209415639</v>
       </c>
       <c r="M2" t="n">
-        <v>584042.920941564</v>
+        <v>584042.9209415641</v>
       </c>
       <c r="N2" t="n">
-        <v>584042.9209415637</v>
+        <v>584042.9209415641</v>
       </c>
       <c r="O2" t="n">
-        <v>535850.0349399233</v>
+        <v>535850.0349399234</v>
       </c>
       <c r="P2" t="n">
         <v>535850.0349399234</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108467</v>
+        <v>143124.2752108466</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668813</v>
+        <v>30686.46086668822</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>135342.0294691537</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.7742611095</v>
+        <v>24445.77426110957</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>203402.6837676921</v>
       </c>
       <c r="E4" t="n">
-        <v>104184.3863816102</v>
+        <v>104184.3863816103</v>
       </c>
       <c r="F4" t="n">
         <v>104184.3863816103</v>
@@ -26438,28 +26438,28 @@
         <v>104184.3863816102</v>
       </c>
       <c r="I4" t="n">
-        <v>104184.3863816103</v>
+        <v>104184.3863816102</v>
       </c>
       <c r="J4" t="n">
         <v>104184.3863816102</v>
       </c>
       <c r="K4" t="n">
-        <v>104184.3863816101</v>
+        <v>104184.3863816102</v>
       </c>
       <c r="L4" t="n">
-        <v>104184.3863816102</v>
+        <v>104184.3863816103</v>
       </c>
       <c r="M4" t="n">
-        <v>104184.3863816102</v>
+        <v>104184.3863816103</v>
       </c>
       <c r="N4" t="n">
-        <v>104184.3863816102</v>
+        <v>104184.3863816103</v>
       </c>
       <c r="O4" t="n">
         <v>74374.35696474131</v>
       </c>
       <c r="P4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742944</v>
+        <v>59594.05390742942</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26478,7 +26478,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="F5" t="n">
         <v>73345.15677686484</v>
@@ -26490,7 +26490,7 @@
         <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26499,13 +26499,13 @@
         <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="M5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="N5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176680.3137709809</v>
+        <v>176680.313770981</v>
       </c>
       <c r="C6" t="n">
-        <v>303206.6445072127</v>
+        <v>303206.6445072129</v>
       </c>
       <c r="D6" t="n">
-        <v>333893.1053739009</v>
+        <v>333893.105373901</v>
       </c>
       <c r="E6" t="n">
-        <v>190784.4615025758</v>
+        <v>190734.1319531736</v>
       </c>
       <c r="F6" t="n">
-        <v>406513.3777830889</v>
+        <v>406463.0482336878</v>
       </c>
       <c r="G6" t="n">
-        <v>406513.3777830889</v>
+        <v>406463.0482336878</v>
       </c>
       <c r="H6" t="n">
-        <v>406513.3777830889</v>
+        <v>406463.0482336875</v>
       </c>
       <c r="I6" t="n">
-        <v>406513.377783089</v>
+        <v>406463.0482336876</v>
       </c>
       <c r="J6" t="n">
-        <v>271171.3483139352</v>
+        <v>271121.0187645339</v>
       </c>
       <c r="K6" t="n">
-        <v>382067.6035219793</v>
+        <v>382017.2739725779</v>
       </c>
       <c r="L6" t="n">
-        <v>406513.3777830888</v>
+        <v>406463.0482336874</v>
       </c>
       <c r="M6" t="n">
-        <v>246154.9272824063</v>
+        <v>246104.5977330049</v>
       </c>
       <c r="N6" t="n">
-        <v>406513.3777830887</v>
+        <v>406463.0482336876</v>
       </c>
       <c r="O6" t="n">
-        <v>390610.4677303087</v>
+        <v>390429.8871376597</v>
       </c>
       <c r="P6" t="n">
-        <v>390610.4677303088</v>
+        <v>390429.8871376597</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G2" t="n">
         <v>29.49894172633793</v>
@@ -26706,22 +26706,22 @@
         <v>29.49894172633793</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="L2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625183</v>
+        <v>94.98373636625212</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625183</v>
+        <v>94.98373636625212</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625183</v>
+        <v>94.98373636625212</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>315.4210035250891</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>72.29635103004745</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>71.90494174111083</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>103.9543291284546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>23.12472639190906</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>164.1762662001699</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>252.6078065630679</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>163.8736083668051</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>39.74007204503573</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>152.1234863376401</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -27918,10 +27918,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>174.0487912795718</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>86.11522480836777</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="C11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="D11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="E11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="H11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="I11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="T11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="U11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="V11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="W11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="X11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="C13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="D13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="E13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="H13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="I13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="J13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="K13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="L13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="M13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="N13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="O13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="P13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="R13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="S13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="T13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="U13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="V13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="W13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="X13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633802</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633802</v>
       </c>
     </row>
     <row r="17">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633801</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633793</v>
+        <v>29.49894172633796</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633789</v>
+        <v>29.49894172633796</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="41">
@@ -34701,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>427.0798340037734</v>
+      </c>
+      <c r="L2" t="n">
         <v>409.8240831349343</v>
       </c>
-      <c r="L2" t="n">
-        <v>427.0798340037737</v>
-      </c>
       <c r="M2" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="N2" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>26.58773561310258</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="L3" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037737</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>427.0798340037737</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>427.0798340037734</v>
       </c>
       <c r="P3" t="n">
-        <v>56.44583597939556</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
@@ -34947,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>445.0368534430334</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,7 +35266,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>14.48459394538821</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
@@ -35275,7 +35275,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.49261310237</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35576,7 +35576,7 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
@@ -35588,7 +35588,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978329</v>
+        <v>95.6888708197833</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35661,7 +35661,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35728,10 +35728,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>248.9915517855805</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533857</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K16" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
         <v>292.0212652415507</v>
@@ -35819,13 +35819,13 @@
         <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978332</v>
+        <v>95.6888708197833</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P17" t="n">
         <v>534.50171506985</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>305.0908579178829</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>108.5673193121741</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>29.85810036629282</v>
@@ -36360,7 +36360,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L23" t="n">
         <v>719.7892927396343</v>
@@ -36381,7 +36381,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>504.6010349596356</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533854</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M25" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P25" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.6888708197833</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>547.9029729663084</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533845</v>
+        <v>43.72373910533849</v>
       </c>
       <c r="K28" t="n">
         <v>185.6124040720329</v>
@@ -36764,16 +36764,16 @@
         <v>321.6848573227958</v>
       </c>
       <c r="N28" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P28" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.6888708197832</v>
+        <v>95.68887081978325</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533841</v>
+        <v>43.72373910533849</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720328</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L31" t="n">
         <v>292.0212652415506</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227957</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N31" t="n">
-        <v>313.1744794983078</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P31" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978318</v>
+        <v>95.68887081978325</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>547.9029729663084</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K34" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L34" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N34" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P34" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>120.947516057361</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K37" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L37" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N37" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P37" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N39" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533844</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K40" t="n">
-        <v>185.6124040720328</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L40" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M40" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N40" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P40" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.6888708197832</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N42" t="n">
-        <v>133.5425242304483</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>210.7165365725546</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
